--- a/FORMAT/TAM/ASN_Template.xlsx
+++ b/FORMAT/TAM/ASN_Template.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\3P_CHECK_OES\FORMAT\TAM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A021A1-4422-471B-B77E-B49910AF0494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="8280"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASN TEMPLATE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CASE PALLETIZE MARK</t>
   </si>
@@ -53,40 +72,13 @@
   </si>
   <si>
     <t>PART NO</t>
-  </si>
-  <si>
-    <t>20170531</t>
-  </si>
-  <si>
-    <t>N2900030</t>
-  </si>
-  <si>
-    <t>16401BZ010</t>
-  </si>
-  <si>
-    <t>19070BZ031</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>NDUZ</t>
-  </si>
-  <si>
-    <t>MNDUNDU1</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>0002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +109,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -152,27 +137,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -188,9 +171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,7 +211,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -300,7 +283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,11 +456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +475,7 @@
     <col min="8" max="8" width="11.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" style="2" customWidth="1"/>
   </cols>
@@ -504,34 +487,34 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -539,53 +522,34 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF0000 CONFIDENTIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>